--- a/inst/extdata/ship_meta_v2.xlsx
+++ b/inst/extdata/ship_meta_v2.xlsx
@@ -2,77 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marinoj\Desktop\QualityIndicatorFunctions\QualityIndicatorFunctions\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marinoj\Documents\2022_dataquieR_dev\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="11976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="item_level" sheetId="9" r:id="rId1"/>
-    <sheet name="missing_table" sheetId="8" r:id="rId2"/>
-    <sheet name="cross-item_level" sheetId="5" r:id="rId3"/>
-    <sheet name="segment_level" sheetId="2" r:id="rId4"/>
-    <sheet name="expected_id_segment" sheetId="3" r:id="rId5"/>
-    <sheet name="dataframe_level" sheetId="1" r:id="rId6"/>
+    <sheet name="item_level" sheetId="1" r:id="rId1"/>
+    <sheet name="missing_table" sheetId="2" r:id="rId2"/>
+    <sheet name="cross-item_level" sheetId="3" r:id="rId3"/>
+    <sheet name="segment_level" sheetId="4" r:id="rId4"/>
+    <sheet name="expected_id_segment" sheetId="5" r:id="rId5"/>
+    <sheet name="dataframe_level" sheetId="6" r:id="rId6"/>
     <sheet name="expected_id_dataframe" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="218">
-  <si>
-    <t>DF_RECORD_COUNT</t>
-  </si>
-  <si>
-    <t>DF_ID_REF_TABLE</t>
-  </si>
-  <si>
-    <t>DF_RECORD_CHECK</t>
-  </si>
-  <si>
-    <t>DF_UNIQUE_ID</t>
-  </si>
-  <si>
-    <t>DF_ID_VARS</t>
-  </si>
-  <si>
-    <t>DF_UNIQUE_ROWS</t>
-  </si>
-  <si>
-    <t>DF_NAME</t>
-  </si>
-  <si>
-    <t>DF_ELEMENT_COUNT</t>
-  </si>
-  <si>
-    <t>exact</t>
-  </si>
-  <si>
-    <t>SEGMENT_RECORD_COUNT</t>
-  </si>
-  <si>
-    <t>SEGMENT_ID_TABLE</t>
-  </si>
-  <si>
-    <t>SEGMENT_RECORD_CHECK</t>
-  </si>
-  <si>
-    <t>SEGMENT_ID_VARS</t>
-  </si>
-  <si>
-    <t>SEGMENT_UNIQUE_ROWS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="247">
   <si>
     <t>VAR_NAMES</t>
   </si>
@@ -86,10 +39,16 @@
     <t>VALUE_LABELS</t>
   </si>
   <si>
+    <t>STANDARDIZED_VOCABULARY_TABLE</t>
+  </si>
+  <si>
     <t>MISSING_LIST</t>
   </si>
   <si>
     <t>JUMP_LIST</t>
+  </si>
+  <si>
+    <t>MISSING_LIST_TABLE</t>
   </si>
   <si>
     <t>HARD_LIMITS</t>
@@ -110,6 +69,21 @@
     <t>DATA_ENTRY_TYPE</t>
   </si>
   <si>
+    <t>GROUP_VAR_OBSERVER</t>
+  </si>
+  <si>
+    <t>GROUP_VAR_DEVICE</t>
+  </si>
+  <si>
+    <t>TIME_VAR</t>
+  </si>
+  <si>
+    <t>STUDY_SEGMENT</t>
+  </si>
+  <si>
+    <t>PART_VAR</t>
+  </si>
+  <si>
     <t>VARIABLE_ROLE</t>
   </si>
   <si>
@@ -119,61 +93,13 @@
     <t>LONG_LABEL</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>intro</t>
-  </si>
-  <si>
-    <t>SEX_0</t>
-  </si>
-  <si>
-    <t>AGE_0</t>
-  </si>
-  <si>
-    <t>0 = no | 1 = yes</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>[0;265]</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>uniform</t>
-  </si>
-  <si>
-    <t>[0;Inf)</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>EXAM_DT_0</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>gamma</t>
-  </si>
-  <si>
-    <t>STANDARDIZED_VOCABULARY_TABLE</t>
-  </si>
-  <si>
-    <t>MISSING_LIST_TABLE</t>
-  </si>
-  <si>
     <t>ELEMENT_HOMOGENITY_CHECKTYPE</t>
   </si>
   <si>
     <t>UNIVARIATE_OUTLIER_CHECKTYPE</t>
+  </si>
+  <si>
+    <t>N_RULES</t>
   </si>
   <si>
     <t>LOCATION_METRIC</t>
@@ -185,88 +111,13 @@
     <t>PROPORTION_RANGE</t>
   </si>
   <si>
+    <t>REPEATED_MEASURES_VARS</t>
+  </si>
+  <si>
     <t>REPEATED_MEASURES_GOLDSTANDARD</t>
   </si>
   <si>
     <t>CO_VARS</t>
-  </si>
-  <si>
-    <t>CONTRADICTION_TERM</t>
-  </si>
-  <si>
-    <t>CONTRADICTION_TYPE</t>
-  </si>
-  <si>
-    <t>MULTIVARIATE_OUTLIER_CHECKTYPE</t>
-  </si>
-  <si>
-    <t>ASSOCIATION_RANGE</t>
-  </si>
-  <si>
-    <t>ASSOCIATION_METRIC</t>
-  </si>
-  <si>
-    <t>ASSOCIATION_DIRECTION</t>
-  </si>
-  <si>
-    <t>ASSOCIATION_FORM</t>
-  </si>
-  <si>
-    <t>REL_VAL</t>
-  </si>
-  <si>
-    <t>GOLDSTANDARD</t>
-  </si>
-  <si>
-    <t>LOGICAL</t>
-  </si>
-  <si>
-    <t>EMPIRICAL</t>
-  </si>
-  <si>
-    <t>Blood pressure checks</t>
-  </si>
-  <si>
-    <t>Hubert</t>
-  </si>
-  <si>
-    <t>(0.7;)</t>
-  </si>
-  <si>
-    <t>Pearson</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>inter_class</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>STUDY_SEGMENT</t>
-  </si>
-  <si>
-    <t>VARIABLE_LIST</t>
-  </si>
-  <si>
-    <t>CHECK_LABEL</t>
-  </si>
-  <si>
-    <t>REPEATED_MEASURES_VARS</t>
-  </si>
-  <si>
-    <t>GROUP_VAR_OBSERVER</t>
-  </si>
-  <si>
-    <t>GROUP_VAR_DEVICE</t>
-  </si>
-  <si>
-    <t>TIME_VAR</t>
-  </si>
-  <si>
-    <t>PART_VAR</t>
   </si>
   <si>
     <t>id</t>
@@ -275,16 +126,61 @@
     <t>ID</t>
   </si>
   <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>INTRO</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>Participant ID</t>
+  </si>
+  <si>
     <t>exdate</t>
+  </si>
+  <si>
+    <t>EXAM_DT_0</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>[1995-01-01;)</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>Examination date and time</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
+    <t>SEX_0</t>
+  </si>
+  <si>
     <t>1 = males | 2 = females</t>
   </si>
   <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>(48;52)</t>
+  </si>
+  <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>AGE_0</t>
+  </si>
+  <si>
+    <t>[20;Inf)</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
   <si>
     <t>obs_bp</t>
@@ -299,6 +195,15 @@
     <t>99900 | 99901 | 99902</t>
   </si>
   <si>
+    <t>missing_table</t>
+  </si>
+  <si>
+    <t>SOMATOMETRY</t>
+  </si>
+  <si>
+    <t>Blood pressure examiner</t>
+  </si>
+  <si>
     <t>dev_bp</t>
   </si>
   <si>
@@ -308,10 +213,52 @@
     <t xml:space="preserve">1 = Dev_01 | 2 = Dev_02 | 3 = Dev_03 | 4 = Dev_04 | 5 = Dev_05 | 6 = Dev_06 | 7 = Dev_07 | 8 = Dev_08 | 9 = Dev_09 | 10 = Dev_10 | 11 = Dev_11 | 12 = Dev_12 | 13 = Dev_13 | 14 = Dev_14 | 15 = Dev_15 | 16 = Dev_16 | 17 = Dev_17 | 18 = Dev_18 | 19 = Dev_19 | 20 = Dev_20 | 21 = Dev_21 | 22 = Dev_22 | 23 = Dev_23 | 24 = Dev_24 | 25 = Dev_25 </t>
   </si>
   <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>Blood pressure device ID</t>
+  </si>
+  <si>
     <t>sbp1</t>
   </si>
   <si>
     <t>SBP_0.1</t>
+  </si>
+  <si>
+    <t>[80;200]</t>
+  </si>
+  <si>
+    <t>[0;265]</t>
+  </si>
+  <si>
+    <t>(90;180)</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs_bp     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev_bp      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exdate      </t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure 1</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>(100;140)</t>
+  </si>
+  <si>
+    <t>sex | age</t>
   </si>
   <si>
     <t>sbp2</t>
@@ -320,16 +267,34 @@
     <t>SBP_0.2</t>
   </si>
   <si>
+    <t>Systolic blood pressure 2</t>
+  </si>
+  <si>
     <t>dbp1</t>
   </si>
   <si>
     <t>DBP_0.1</t>
   </si>
   <si>
+    <t>[40;160]</t>
+  </si>
+  <si>
+    <t>(55;120)</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure 1</t>
+  </si>
+  <si>
+    <t>(60;100)</t>
+  </si>
+  <si>
     <t>dbp2</t>
   </si>
   <si>
     <t>DBP_0.2</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure 2</t>
   </si>
   <si>
     <t>obs_soma</t>
@@ -344,6 +309,9 @@
     <t>99900</t>
   </si>
   <si>
+    <t>Somatometry examiner</t>
+  </si>
+  <si>
     <t>height</t>
   </si>
   <si>
@@ -353,10 +321,22 @@
     <t>99900 | 99901</t>
   </si>
   <si>
+    <t>[80;230]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs_soma    </t>
+  </si>
+  <si>
     <t>dev_length</t>
   </si>
   <si>
+    <t>Body height</t>
+  </si>
+  <si>
     <t>DEV_HEIGHT_0</t>
+  </si>
+  <si>
+    <t>Body height scale ID</t>
   </si>
   <si>
     <t>weight</t>
@@ -365,16 +345,34 @@
     <t>BODY_WEIGHT_0</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>[30;250]</t>
+  </si>
+  <si>
     <t>dev_weight</t>
   </si>
   <si>
+    <t>Body weight</t>
+  </si>
+  <si>
     <t>DEV_WEIGHT_0</t>
+  </si>
+  <si>
+    <t>Body weight scale ID</t>
   </si>
   <si>
     <t>waist</t>
   </si>
   <si>
     <t>WAIST_CIRC_0</t>
+  </si>
+  <si>
+    <t>[30;Inf)</t>
+  </si>
+  <si>
+    <t>Waist circumference</t>
   </si>
   <si>
     <t>obs_int</t>
@@ -384,6 +382,15 @@
   </si>
   <si>
     <t>1 = Obs_01 | 2 = Obs_02 | 3 = Obs_03 | 4 = Obs_04 | 5 = Obs_05 | 6 = Obs_06 | 7 = Obs_07 | 8 = Obs_08 | 9 = Obs_09 | 10 = Obs_10 | 11 = Obs_11 | 12 = Obs_12 | 13 = Obs_13 | 14 = Obs_14 | 15 = Obs_15 | 16 = Obs_16 | 17 = Obs_17 | 18 = Obs_18 | 19 = Obs_19 | 20 = Obs_20  | 21 = Obs_21 | 22 = Obs_22 | 23 = Obs_23 | 24 = Obs_24 | 25 = Obs_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs_int    </t>
+  </si>
+  <si>
+    <t>INTERVIEW</t>
+  </si>
+  <si>
+    <t>Interview examiner</t>
   </si>
   <si>
     <t>school</t>
@@ -398,6 +405,9 @@
     <t xml:space="preserve">99900 | 99901 | 99914 </t>
   </si>
   <si>
+    <t>Highest educational level</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -405,6 +415,9 @@
   </si>
   <si>
     <t>1 = married | 2 = married (living apart) | 3 = single (never married) | 4 = divorced | 5 = widowed</t>
+  </si>
+  <si>
+    <t>Marital status</t>
   </si>
   <si>
     <t>smoking</t>
@@ -416,6 +429,9 @@
     <t>0 = nonsmoker | 1 = former smoker | 2 = smoker</t>
   </si>
   <si>
+    <t>Smoking status</t>
+  </si>
+  <si>
     <t>stroke</t>
   </si>
   <si>
@@ -425,10 +441,16 @@
     <t>1 = yes | 2 = no</t>
   </si>
   <si>
+    <t>Ever had stroke</t>
+  </si>
+  <si>
     <t>myocard</t>
   </si>
   <si>
     <t>MYOCARD_YN_0</t>
+  </si>
+  <si>
+    <t>Ever had myocardial infarction</t>
   </si>
   <si>
     <t>diab_known</t>
@@ -437,16 +459,28 @@
     <t>DIABETES_KNOWN_0</t>
   </si>
   <si>
+    <t>0 = no | 1 = yes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
+  </si>
+  <si>
     <t>diab_age</t>
   </si>
   <si>
     <t>DIAB_AGE_ONSET_0</t>
   </si>
   <si>
+    <t>Age of diabetes onset</t>
+  </si>
+  <si>
     <t>contraception</t>
   </si>
   <si>
     <t>CONTRACEPTIVA_EVER_0</t>
+  </si>
+  <si>
+    <t>Ever taken birth control pills</t>
   </si>
   <si>
     <t>income</t>
@@ -458,10 +492,25 @@
     <t>1 = &lt; 2000 | 2 = 2000 ï¿½ 4000 | 3 = &gt; 4000</t>
   </si>
   <si>
+    <t>Monthly household income</t>
+  </si>
+  <si>
     <t>hdl</t>
   </si>
   <si>
     <t>CHOLES_HDL_0</t>
+  </si>
+  <si>
+    <t>[0;Inf)</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>LABORATORY</t>
+  </si>
+  <si>
+    <t>HDL-cholesterol</t>
   </si>
   <si>
     <t>ldl</t>
@@ -470,109 +519,25 @@
     <t>CHOLES_LDL_0</t>
   </si>
   <si>
+    <t>LDL-cholesterol</t>
+  </si>
+  <si>
     <t>cholesterol</t>
   </si>
   <si>
     <t>CHOLES_ALL_0</t>
   </si>
   <si>
-    <t>[1995-01-01;)</t>
-  </si>
-  <si>
-    <t>[20;Inf)</t>
-  </si>
-  <si>
-    <t>[80;200]</t>
-  </si>
-  <si>
-    <t>(90;180)</t>
-  </si>
-  <si>
-    <t>[40;160]</t>
-  </si>
-  <si>
-    <t>(55;120)</t>
-  </si>
-  <si>
-    <t>[80;230]</t>
-  </si>
-  <si>
-    <t>[30;250]</t>
-  </si>
-  <si>
-    <t>[30;Inf)</t>
-  </si>
-  <si>
-    <t>INTRO</t>
-  </si>
-  <si>
-    <t>SOMATOMETRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs_bp     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dev_bp      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">exdate      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs_soma    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs_int    </t>
-  </si>
-  <si>
-    <t>INTERVIEW</t>
-  </si>
-  <si>
-    <t>LABORATORY</t>
-  </si>
-  <si>
-    <t>[sbp1] &lt; [dbp1]</t>
-  </si>
-  <si>
-    <t>[sbp2] &lt; [dbp2]</t>
-  </si>
-  <si>
-    <t>[BODY_HEIGHT_0] &lt; [BODY_WEIGHT_0]</t>
-  </si>
-  <si>
-    <t>[BODY_HEIGHT_0] &lt; [WAIST_CIRC_0]</t>
-  </si>
-  <si>
-    <t>Contraception inconsistency</t>
-  </si>
-  <si>
-    <t>[SEX_0] = "males" and [CONTRACEPTIVA_EVER_0] = "yes"</t>
-  </si>
-  <si>
-    <t>[DIABETES_KNOWN_0] = "yes" NOT [DIAB_AGE_ONSET_0] &gt; 0</t>
-  </si>
-  <si>
-    <t>sbp1 | sbp2</t>
-  </si>
-  <si>
-    <t>sbp1 | sbp2 | dbp1 | dbp2</t>
-  </si>
-  <si>
-    <t>dbp1 | dbp2</t>
-  </si>
-  <si>
-    <t>Systolic blood pressure checks</t>
-  </si>
-  <si>
-    <t>Diastolic blood pressure checks</t>
-  </si>
-  <si>
-    <t>intra_class</t>
+    <t xml:space="preserve">Total cholesterol </t>
   </si>
   <si>
     <t>CODE_VALUE</t>
   </si>
   <si>
     <t>CODE_LABEL</t>
+  </si>
+  <si>
+    <t>CODE_INTERPRET</t>
   </si>
   <si>
     <t>JUMP - other reason</t>
@@ -626,61 +591,178 @@
     <t>Data management ongoing</t>
   </si>
   <si>
-    <t>[DIAB_AGE_ONSET_0] &gt; 0 and [DIABETES_KNOWN_0] = "no"</t>
+    <t>VARIABLE_LIST</t>
+  </si>
+  <si>
+    <t>CHECK_LABEL</t>
+  </si>
+  <si>
+    <t>CONTRADICTION_TERM</t>
+  </si>
+  <si>
+    <t>CONTRADICTION_TYPE</t>
+  </si>
+  <si>
+    <t>MULTIVARIATE_OUTLIER_CHECKTYPE</t>
+  </si>
+  <si>
+    <t>ASSOCIATION_RANGE</t>
+  </si>
+  <si>
+    <t>ASSOCIATION_METRIC</t>
+  </si>
+  <si>
+    <t>ASSOCIATION_DIRECTION</t>
+  </si>
+  <si>
+    <t>ASSOCIATION_FORM</t>
+  </si>
+  <si>
+    <t>REL_VAL</t>
+  </si>
+  <si>
+    <t>GOLDSTANDARD</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure lower than dyastolic blood pressure, first measurement</t>
+  </si>
+  <si>
+    <t>[sbp1] &lt; [dbp1]</t>
+  </si>
+  <si>
+    <t>LOGICAL</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure lower than dyastolic blood pressure, second measurement</t>
+  </si>
+  <si>
+    <t>[sbp2] &lt; [dbp2]</t>
+  </si>
+  <si>
+    <t>Body height lower than body weight</t>
+  </si>
+  <si>
+    <t>[BODY_HEIGHT_0] &lt; [BODY_WEIGHT_0]</t>
+  </si>
+  <si>
+    <t>Body height lower than waist circumference</t>
+  </si>
+  <si>
+    <t>[BODY_HEIGHT_0] &lt; [WAIST_CIRC_0]</t>
+  </si>
+  <si>
+    <t>Contraception inconsistency</t>
+  </si>
+  <si>
+    <t>[SEX_0] = "males" and [CONTRACEPTIVA_EVER_0] = "yes"</t>
   </si>
   <si>
     <t>Diabetes age inconsistency 1</t>
   </si>
   <si>
+    <t>[DIABETES_KNOWN_0] = "yes" NOT [DIAB_AGE_ONSET_0] &gt; 0</t>
+  </si>
+  <si>
+    <t>EMPIRICAL</t>
+  </si>
+  <si>
     <t>Diabetes age inconsistency 2</t>
   </si>
   <si>
-    <t>Systolic blood pressure lower than dyastolic blood pressure, first measurement</t>
+    <t>[DIAB_AGE_ONSET_0] &gt; 0 and [DIABETES_KNOWN_0] = "no"</t>
   </si>
   <si>
-    <t>Systolic blood pressure lower than dyastolic blood pressure, second measurement</t>
+    <t>sbp1 | sbp2</t>
   </si>
   <si>
-    <t>Body height lower than waist circumference</t>
+    <t>Systolic blood pressure checks</t>
   </si>
   <si>
-    <t>Body height lower than body weight</t>
+    <t>Hubert</t>
+  </si>
+  <si>
+    <t>dbp1 | dbp2</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure checks</t>
+  </si>
+  <si>
+    <t>(0.7;)</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>inter_class</t>
+  </si>
+  <si>
+    <t>sbp1 | sbp2 | dbp1 | dbp2</t>
+  </si>
+  <si>
+    <t>Blood pressure checks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>intra_class</t>
+  </si>
+  <si>
+    <t>SEGMENT_RECORD_COUNT</t>
+  </si>
+  <si>
+    <t>SEGMENT_ID_TABLE</t>
+  </si>
+  <si>
+    <t>SEGMENT_RECORD_CHECK</t>
+  </si>
+  <si>
+    <t>SEGMENT_ID_VARS</t>
+  </si>
+  <si>
+    <t>SEGMENT_UNIQUE_ROWS</t>
+  </si>
+  <si>
+    <t>expected_id_segment</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
   <si>
     <t>subset</t>
   </si>
   <si>
-    <t>TRUE</t>
+    <t>DF_NAME</t>
   </si>
   <si>
-    <t>(48;52)</t>
+    <t>DF_ELEMENT_COUNT</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>DF_RECORD_COUNT</t>
   </si>
   <si>
-    <t>(100;140)</t>
+    <t>DF_ID_REF_TABLE</t>
   </si>
   <si>
-    <t>sex | age</t>
+    <t>DF_RECORD_CHECK</t>
   </si>
   <si>
-    <t>(60;100)</t>
+    <t>DF_UNIQUE_ID</t>
+  </si>
+  <si>
+    <t>DF_ID_VARS</t>
+  </si>
+  <si>
+    <t>DF_UNIQUE_ROWS</t>
   </si>
   <si>
     <t>ship</t>
-  </si>
-  <si>
-    <t>N_RULES</t>
-  </si>
-  <si>
-    <t>missing_table</t>
-  </si>
-  <si>
-    <t>CODE_INTERPRET</t>
-  </si>
-  <si>
-    <t>expected_id_segment</t>
   </si>
   <si>
     <t>expected_id_dataframe</t>
@@ -695,42 +777,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -771,28 +847,30 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Gut 2" xfId="2"/>
-    <cellStyle name="Neutral 2" xfId="3"/>
-    <cellStyle name="Schlecht 2" xfId="4"/>
+    <cellStyle name="Gut 2" xfId="1"/>
+    <cellStyle name="Neutral 2" xfId="2"/>
+    <cellStyle name="Schlecht 2" xfId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,74 +928,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -925,7 +943,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -951,7 +969,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1003,16 +1021,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1028,7 +1058,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1060,11 +1090,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1073,543 +1098,577 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>148</v>
-      </c>
-      <c r="R3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" t="s">
-        <v>40</v>
       </c>
       <c r="U3">
         <v>2</v>
       </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
       <c r="Y3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U4">
         <v>3</v>
       </c>
+      <c r="V4" t="s">
+        <v>46</v>
+      </c>
       <c r="Y4">
         <v>4</v>
       </c>
       <c r="AB4" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="R5" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U5">
         <v>4</v>
       </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
       <c r="Y5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U6">
         <v>5</v>
       </c>
+      <c r="V6" t="s">
+        <v>58</v>
+      </c>
       <c r="Y6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="R7" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U7">
         <v>6</v>
       </c>
+      <c r="V7" t="s">
+        <v>63</v>
+      </c>
       <c r="Y7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="Q8" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
+      <c r="V8" t="s">
+        <v>74</v>
+      </c>
       <c r="Y8">
         <v>4</v>
       </c>
       <c r="Z8" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="Q9" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U9">
         <v>8</v>
       </c>
+      <c r="V9" t="s">
+        <v>80</v>
+      </c>
       <c r="Y9">
         <v>4</v>
       </c>
       <c r="Z9" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="Q10" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U10">
         <v>9</v>
       </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
       <c r="Y10">
         <v>4</v>
       </c>
       <c r="Z10" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="AE10" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="Q11" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U11">
         <v>10</v>
       </c>
+      <c r="V11" t="s">
+        <v>89</v>
+      </c>
       <c r="Y11">
         <v>4</v>
       </c>
       <c r="Z11" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="AE11" t="s">
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U12">
         <v>11</v>
       </c>
+      <c r="V12" t="s">
+        <v>94</v>
+      </c>
       <c r="Y12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1618,77 +1677,83 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Q13" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U13">
         <v>12</v>
       </c>
+      <c r="V13" t="s">
+        <v>101</v>
+      </c>
       <c r="Y13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U14">
         <v>13</v>
       </c>
+      <c r="V14" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="Y14">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -1697,602 +1762,651 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q15" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R15" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U15">
         <v>14</v>
       </c>
+      <c r="V15" t="s">
+        <v>109</v>
+      </c>
       <c r="Y15">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U16">
         <v>15</v>
       </c>
+      <c r="V16" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="Y16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
         <v>113</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
         <v>114</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" t="s">
-        <v>156</v>
-      </c>
       <c r="O17" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="Q17" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U17">
         <v>16</v>
       </c>
+      <c r="V17" t="s">
+        <v>115</v>
+      </c>
       <c r="Y17">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="R18" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U18">
         <v>17</v>
       </c>
+      <c r="V18" t="s">
+        <v>121</v>
+      </c>
       <c r="Y18">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
         <v>119</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="Q19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" t="s">
         <v>120</v>
       </c>
-      <c r="F19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" t="s">
-        <v>214</v>
-      </c>
-      <c r="O19" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>161</v>
-      </c>
-      <c r="R19" t="s">
-        <v>164</v>
-      </c>
       <c r="T19" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U19">
         <v>18</v>
       </c>
+      <c r="V19" t="s">
+        <v>126</v>
+      </c>
       <c r="Y19">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="Q20" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R20" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T20" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U20">
         <v>19</v>
       </c>
+      <c r="V20" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="Y20">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
         <v>125</v>
       </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" t="s">
-        <v>121</v>
-      </c>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="Q21" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R21" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T21" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U21">
         <v>20</v>
       </c>
+      <c r="V21" t="s">
+        <v>134</v>
+      </c>
       <c r="Y21">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="Q22" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R22" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U22">
         <v>21</v>
       </c>
+      <c r="V22" t="s">
+        <v>138</v>
+      </c>
       <c r="Y22">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="Q23" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R23" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T23" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U23">
         <v>22</v>
       </c>
+      <c r="V23" t="s">
+        <v>141</v>
+      </c>
       <c r="Y23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="Q24" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R24" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T24" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U24">
         <v>23</v>
       </c>
+      <c r="V24" t="s">
+        <v>145</v>
+      </c>
       <c r="Y24">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G25">
         <v>99801</v>
       </c>
       <c r="H25" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="Q25" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T25" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U25">
         <v>24</v>
       </c>
+      <c r="V25" t="s">
+        <v>148</v>
+      </c>
       <c r="Y25">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
         <v>137</v>
       </c>
-      <c r="B26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
-      </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G26">
         <v>99801</v>
       </c>
       <c r="H26" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="Q26" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R26" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T26" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U26">
         <v>25</v>
       </c>
+      <c r="V26" t="s">
+        <v>151</v>
+      </c>
       <c r="Y26">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="Q27" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="T27" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U27">
         <v>26</v>
       </c>
+      <c r="V27" t="s">
+        <v>155</v>
+      </c>
       <c r="Y27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H28" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="M28">
         <v>3</v>
       </c>
       <c r="Q28" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U28">
         <v>27</v>
       </c>
+      <c r="V28" t="s">
+        <v>161</v>
+      </c>
       <c r="Y28">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H29" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="Q29" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R29" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="T29" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U29">
         <v>28</v>
       </c>
+      <c r="V29" t="s">
+        <v>164</v>
+      </c>
       <c r="Y29">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="Q30" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="R30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="T30" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="U30">
         <v>29</v>
       </c>
+      <c r="V30" t="s">
+        <v>167</v>
+      </c>
       <c r="Y30">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2312,13 +2426,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2326,7 +2440,7 @@
         <v>99800</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2334,7 +2448,7 @@
         <v>99801</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2342,7 +2456,7 @@
         <v>99802</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2350,7 +2464,7 @@
         <v>99900</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2358,7 +2472,7 @@
         <v>99901</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2366,7 +2480,7 @@
         <v>99902</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2374,7 +2488,7 @@
         <v>99903</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2382,7 +2496,7 @@
         <v>99904</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2390,7 +2504,7 @@
         <v>99905</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,7 +2512,7 @@
         <v>99906</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2406,7 +2520,7 @@
         <v>99907</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2414,7 +2528,7 @@
         <v>99908</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2422,7 +2536,7 @@
         <v>99909</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2430,7 +2544,7 @@
         <v>99910</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2438,7 +2552,7 @@
         <v>99912</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2446,7 +2560,7 @@
         <v>99913</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2454,12 +2568,12 @@
         <v>99914</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2485,51 +2599,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2537,10 +2651,10 @@
         <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2548,164 +2662,165 @@
         <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
+        <v>225</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
         <v>4</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="K13" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="L13" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2729,106 +2844,107 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>2154</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>500</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>2150</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B5">
         <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2847,16 +2963,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -23077,7 +23193,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -23102,33 +23219,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>29</v>
@@ -23137,24 +23254,24 @@
         <v>2154</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -23170,7 +23287,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -33944,6 +34061,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157500000008" bottom="0.78740157500000008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>